--- a/Test Cases/US-2.4_Accountant_Customer management fuctionality_TCs.xlsx
+++ b/Test Cases/US-2.4_Accountant_Customer management fuctionality_TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{65034B66-B8A7-4B67-9917-533F35E8A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4129E11F-2552-41A9-A41C-04E69B9EB725}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{65034B66-B8A7-4B67-9917-533F35E8A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CEC1912-BF93-4A29-AC05-A4E185F00DDD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>Subject</t>
   </si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">Validate new account receivable enteries form </t>
   </si>
   <si>
-    <t>Validate customer name field.</t>
-  </si>
-  <si>
     <t>Click on submit after filling all required fields.</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Validate the accountant dashboard.</t>
   </si>
   <si>
-    <t>Validate contact information field.</t>
-  </si>
-  <si>
     <t>Sort and filter option should be there for customer name/location</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
   </si>
   <si>
     <t>Adding new customers form should be displayed.</t>
-  </si>
-  <si>
-    <t>Validate other required field.</t>
   </si>
   <si>
     <t>Click on "add new customrts" option</t>
@@ -275,6 +266,12 @@
   </si>
   <si>
     <t>Accounting system -Test Sprint 1/US2.4/Adding new customers in customer management on Accountant dashboard</t>
+  </si>
+  <si>
+    <t>Validate customerID field.</t>
+  </si>
+  <si>
+    <t>Validate company email field.</t>
   </si>
 </sst>
 </file>
@@ -667,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,13 +702,13 @@
     </row>
     <row r="2" spans="1:6" ht="237.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -773,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -787,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
@@ -795,13 +792,13 @@
     </row>
     <row r="8" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -863,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -905,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>23</v>
@@ -919,18 +916,18 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
@@ -995,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1012,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1026,18 +1023,18 @@
         <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1099,10 +1096,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1113,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1121,13 +1118,13 @@
     </row>
     <row r="30" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1189,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1217,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>23</v>
@@ -1231,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>23</v>
@@ -1245,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>23</v>
@@ -1253,13 +1250,13 @@
     </row>
     <row r="39" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1321,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1335,10 +1332,10 @@
         <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1352,18 +1349,18 @@
         <v>25</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1425,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1439,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>26</v>
@@ -1453,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>26</v>
@@ -1467,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>26</v>
